--- a/coffe-app/ServerCoffeeApp/Users.xlsx
+++ b/coffe-app/ServerCoffeeApp/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KP_KPO\coffe-landishi\coffe-app\ServerCoffeeApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABB066D-2A10-4BD1-BADB-2C75416EE07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C9D0C-B795-40C7-8B34-8193E915C674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
   <si>
     <t>e-mail</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>youlchikk</t>
+  </si>
+  <si>
+    <t>3863055</t>
+  </si>
+  <si>
+    <t>yulia@mail.ru</t>
+  </si>
+  <si>
+    <t>06-05-2004</t>
   </si>
 </sst>
 </file>
@@ -357,32 +369,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/coffe-app/ServerCoffeeApp/Users.xlsx
+++ b/coffe-app/ServerCoffeeApp/Users.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KP_KPO\coffe-landishi\coffe-app\ServerCoffeeApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coffe-app\coffe-landishi\coffe-app\ServerCoffeeApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C9D0C-B795-40C7-8B34-8193E915C674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B97C56-36D9-4C22-AC85-EF233C6DF74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -45,13 +54,19 @@
     <t>youlchikk</t>
   </si>
   <si>
-    <t>3863055</t>
-  </si>
-  <si>
     <t>yulia@mail.ru</t>
   </si>
   <si>
     <t>06-05-2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isAdmin </t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>+375-29-860-35-78</t>
   </si>
 </sst>
 </file>
@@ -87,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +400,7 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,22 +416,28 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/coffe-app/ServerCoffeeApp/Users.xlsx
+++ b/coffe-app/ServerCoffeeApp/Users.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -51,29 +51,48 @@
     <t>password</t>
   </si>
   <si>
+    <t xml:space="preserve">isAdmin </t>
+  </si>
+  <si>
     <t>youlchikk</t>
   </si>
   <si>
+    <t>+375-29-860-35-78</t>
+  </si>
+  <si>
     <t>yulia@mail.ru</t>
   </si>
   <si>
     <t>06-05-2004</t>
   </si>
   <si>
-    <t xml:space="preserve">isAdmin </t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>+375-29-860-35-78</t>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>user@mail.ru</t>
+  </si>
+  <si>
+    <t>20.07.2000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +123,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -385,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -400,47 +419,68 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/coffe-app/ServerCoffeeApp/Users.xlsx
+++ b/coffe-app/ServerCoffeeApp/Users.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coffe-app\coffe-landishi\coffe-app\ServerCoffeeApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B97C56-36D9-4C22-AC85-EF233C6DF74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFEAACE-95F5-4834-9A9F-B88CD1DFBAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -57,9 +57,6 @@
     <t>youlchikk</t>
   </si>
   <si>
-    <t>+375-29-860-35-78</t>
-  </si>
-  <si>
     <t>yulia@mail.ru</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>user1</t>
   </si>
   <si>
-    <t>12356</t>
-  </si>
-  <si>
     <t>user@mail.ru</t>
   </si>
   <si>
@@ -85,17 +79,28 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>+375-29-860-35-79</t>
+  </si>
+  <si>
+    <t>+375-29-356-12-49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,7 +128,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -407,7 +412,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,68 +424,68 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>